--- a/biology/Médecine/Pierre_Lasjaunias/Pierre_Lasjaunias.xlsx
+++ b/biology/Médecine/Pierre_Lasjaunias/Pierre_Lasjaunias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Lasjaunias, né le 15 juillet 1948 à Paris et mort le 1er juillet 2008[1] à Zurich, est un médecin français, pionnier de la neuroradiologie[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Lasjaunias, né le 15 juillet 1948 à Paris et mort le 1er juillet 2008 à Zurich, est un médecin français, pionnier de la neuroradiologie.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1975, Pierre Lasjaunias devient docteur en médecine, puis se spécialise en radiologie en 1983[2]. Il devient professeur d'anatomie à la faculté de médecine de l'université Paris Saclay en 1989[2].En 1998, il est nommé chef du service de neuroradiologie à l'hôpital Bicêtre de l'AP-HP[2], puis responsable du pôle neurosciences-tête et cou en 2006[2]. L'année suivante, il devient président de la fédération mondiale de neuroradiologie interventionnelle[2].Il décède en Suisse en 2008, alors qu'il participait à un congrès international de spécialistes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1975, Pierre Lasjaunias devient docteur en médecine, puis se spécialise en radiologie en 1983. Il devient professeur d'anatomie à la faculté de médecine de l'université Paris Saclay en 1989.En 1998, il est nommé chef du service de neuroradiologie à l'hôpital Bicêtre de l'AP-HP, puis responsable du pôle neurosciences-tête et cou en 2006. L'année suivante, il devient président de la fédération mondiale de neuroradiologie interventionnelle.Il décède en Suisse en 2008, alors qu'il participait à un congrès international de spécialistes.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Titres hospitaliers et universitaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>École de management des Hôpitaux de Paris, 1992
 Professeur des universités (anatomie), 1989
@@ -580,7 +596,9 @@
           <t>Fonctions hospitalières et universitaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Responsable du pôle « Neurosciences, tête et cou Hôpital Bicêtre » (2007-2008)
 Coordonnateur du Centre de référence des pathologies neurovasculaires malformatives, labellisé centre de référence pour une maladie rare (2007)
@@ -617,6 +635,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
